--- a/COVIDGR_TOTAL_C.xlsx
+++ b/COVIDGR_TOTAL_C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilistsoubris/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{387B4D50-62FF-F342-87C2-F7BD2C1F70E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E7CB9-71FF-0D4A-B581-FBAF2FB95E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVIDGR_TOTAL_C" sheetId="2" r:id="rId1"/>
@@ -547,10 +547,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,16 +909,16 @@
   <dimension ref="A1:B16381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B662" sqref="B662"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6203,7 +6203,9 @@
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="1"/>
+      <c r="A662" s="1">
+        <v>44548</v>
+      </c>
       <c r="B662">
         <v>1026902</v>
       </c>

--- a/COVIDGR_TOTAL_C.xlsx
+++ b/COVIDGR_TOTAL_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilistsoubris/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2644815-9F0E-6442-A524-560E000D8204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2642B431-8A42-5441-8AAD-17AE40E88917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/COVIDGR_TOTAL_C.xlsx
+++ b/COVIDGR_TOTAL_C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vassilistsoubris/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2642B431-8A42-5441-8AAD-17AE40E88917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8316AAF4-BB99-A242-A326-3B15EDE53306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="2440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,7 +910,7 @@
   <dimension ref="A1:B16381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
